--- a/data/StudentData.xlsx
+++ b/data/StudentData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Punj\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Punj\Documents\Github\Library\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF007E42-446F-4CAF-B6DC-24D6357B8FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA6CDAA-4F78-4C1E-AE7B-F3B24432362E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,13 +85,13 @@
     <t>password123</t>
   </si>
   <si>
-    <t>~/Library/img/std/std.png</t>
-  </si>
-  <si>
     <t>john@example.com</t>
   </si>
   <si>
     <t>2023 - 2024</t>
+  </si>
+  <si>
+    <t>~/img/std/std.png</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,7 +540,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -567,13 +567,13 @@
         <v>19</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2">
         <v>45473.628199145489</v>
